--- a/data/pca/factorExposure/factorExposure_2018-10-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03851521496271351</v>
+        <v>-0.03445180065981662</v>
       </c>
       <c r="C2">
-        <v>-0.05253050777241663</v>
+        <v>-0.0068157169212717</v>
       </c>
       <c r="D2">
-        <v>0.03409486110327486</v>
+        <v>-0.01058240573041674</v>
       </c>
       <c r="E2">
-        <v>-0.04840633393267416</v>
+        <v>0.01571055823195427</v>
       </c>
       <c r="F2">
-        <v>-0.1351030476232729</v>
+        <v>0.02663115010950881</v>
       </c>
       <c r="G2">
-        <v>0.1154654434099557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07553390364491312</v>
+      </c>
+      <c r="H2">
+        <v>0.01766316808297914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1296008254384262</v>
+        <v>-0.08313801661722824</v>
       </c>
       <c r="C3">
-        <v>-0.01381509801726358</v>
+        <v>0.03345785292720996</v>
       </c>
       <c r="D3">
-        <v>0.02971502628138687</v>
+        <v>-0.0224977571145308</v>
       </c>
       <c r="E3">
-        <v>-0.06445156666623562</v>
+        <v>0.0101209682155323</v>
       </c>
       <c r="F3">
-        <v>-0.3530633235239272</v>
+        <v>-0.002104628050642602</v>
       </c>
       <c r="G3">
-        <v>0.2438248520824569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2597537985352779</v>
+      </c>
+      <c r="H3">
+        <v>0.03437071310549521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04749015317646473</v>
+        <v>-0.04613602336706399</v>
       </c>
       <c r="C4">
-        <v>-0.03509895969886632</v>
+        <v>0.005366758073641929</v>
       </c>
       <c r="D4">
-        <v>-0.003962615841013544</v>
+        <v>-0.02353561801971965</v>
       </c>
       <c r="E4">
-        <v>-0.06858359095587112</v>
+        <v>-0.02171947016695558</v>
       </c>
       <c r="F4">
-        <v>-0.06417516042837811</v>
+        <v>0.0630338575519846</v>
       </c>
       <c r="G4">
-        <v>0.06707008969802657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04389446669691285</v>
+      </c>
+      <c r="H4">
+        <v>0.02676441241443438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01057321535077151</v>
+        <v>-0.03077499522975067</v>
       </c>
       <c r="C6">
-        <v>-0.0008267848531103347</v>
+        <v>0.003636068727238356</v>
       </c>
       <c r="D6">
-        <v>0.01021697308291069</v>
+        <v>-0.03264032044241352</v>
       </c>
       <c r="E6">
-        <v>-0.008766641191668914</v>
+        <v>-0.00630113440276101</v>
       </c>
       <c r="F6">
-        <v>-0.01209901322261611</v>
+        <v>0.03973640983350137</v>
       </c>
       <c r="G6">
-        <v>-0.01479691197395809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.009967940567648803</v>
+      </c>
+      <c r="H6">
+        <v>0.05048591015828115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02430299770219486</v>
+        <v>-0.02130998209392619</v>
       </c>
       <c r="C7">
-        <v>-0.02014691717312131</v>
+        <v>0.002136485404881059</v>
       </c>
       <c r="D7">
-        <v>0.02650530830567742</v>
+        <v>-0.01348443792350281</v>
       </c>
       <c r="E7">
-        <v>-0.0350356682942963</v>
+        <v>-0.03587802334305134</v>
       </c>
       <c r="F7">
-        <v>-0.07095313798654959</v>
+        <v>0.02615758253272495</v>
       </c>
       <c r="G7">
-        <v>0.06041742391901431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03262934239961287</v>
+      </c>
+      <c r="H7">
+        <v>0.0191294566612831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008225873718775555</v>
+        <v>-0.000802559845429862</v>
       </c>
       <c r="C8">
-        <v>-0.008957413153631221</v>
+        <v>0.0003436546859953211</v>
       </c>
       <c r="D8">
-        <v>-0.006163274201602</v>
+        <v>-0.01355769922959463</v>
       </c>
       <c r="E8">
-        <v>-0.07244012715774396</v>
+        <v>-0.01303324118780652</v>
       </c>
       <c r="F8">
-        <v>-0.09057327505461102</v>
+        <v>0.02731770790946965</v>
       </c>
       <c r="G8">
-        <v>0.0736820805490271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05003264150057837</v>
+      </c>
+      <c r="H8">
+        <v>0.01011147555926611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03681109943147328</v>
+        <v>-0.03613678944426032</v>
       </c>
       <c r="C9">
-        <v>-0.02919069789134892</v>
+        <v>0.007199839498194203</v>
       </c>
       <c r="D9">
-        <v>-0.01981152162126984</v>
+        <v>-0.01918228365616791</v>
       </c>
       <c r="E9">
-        <v>-0.06832717713981584</v>
+        <v>-0.02017905780608313</v>
       </c>
       <c r="F9">
-        <v>-0.07457029822690858</v>
+        <v>0.03989115904992516</v>
       </c>
       <c r="G9">
-        <v>0.04626308700057088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06084074967864875</v>
+      </c>
+      <c r="H9">
+        <v>0.02956054712975578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05826537869982482</v>
+        <v>-0.07742108890239471</v>
       </c>
       <c r="C10">
-        <v>-0.04722582052531676</v>
+        <v>0.04363090043581688</v>
       </c>
       <c r="D10">
-        <v>-0.02050898378835325</v>
+        <v>0.1402139161573759</v>
       </c>
       <c r="E10">
-        <v>0.1091260308939929</v>
+        <v>0.02299432167384478</v>
       </c>
       <c r="F10">
-        <v>-0.06035973827096181</v>
+        <v>-0.08898242607571309</v>
       </c>
       <c r="G10">
-        <v>-0.002069746972845672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0366677130365339</v>
+      </c>
+      <c r="H10">
+        <v>0.007492089105504453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03115022086189574</v>
+        <v>-0.02188704705986158</v>
       </c>
       <c r="C11">
-        <v>-0.01063144228063345</v>
+        <v>0.01346634747293924</v>
       </c>
       <c r="D11">
-        <v>0.01328314966800309</v>
+        <v>-0.03058996364883625</v>
       </c>
       <c r="E11">
-        <v>-0.03256459663487465</v>
+        <v>0.002848013982095301</v>
       </c>
       <c r="F11">
-        <v>-0.0392811728839973</v>
+        <v>0.02490881304632163</v>
       </c>
       <c r="G11">
-        <v>0.02353061938830774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03273709209846185</v>
+      </c>
+      <c r="H11">
+        <v>0.02781002976850159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03834604993873033</v>
+        <v>-0.03035097643217082</v>
       </c>
       <c r="C12">
-        <v>-0.01124801837241037</v>
+        <v>0.01336414353525283</v>
       </c>
       <c r="D12">
-        <v>0.003759117623699914</v>
+        <v>-0.03052809690213079</v>
       </c>
       <c r="E12">
-        <v>-0.04679342215603326</v>
+        <v>-0.007605130789802632</v>
       </c>
       <c r="F12">
-        <v>-0.02633327289422326</v>
+        <v>0.02869414013891657</v>
       </c>
       <c r="G12">
-        <v>0.01742832025506496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007460193065619262</v>
+      </c>
+      <c r="H12">
+        <v>0.01598091519265649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01867676200860146</v>
+        <v>-0.0279170460127448</v>
       </c>
       <c r="C13">
-        <v>-0.02207952359709935</v>
+        <v>-0.007757513057857925</v>
       </c>
       <c r="D13">
-        <v>0.03271070749275129</v>
+        <v>-0.001956075432288112</v>
       </c>
       <c r="E13">
-        <v>-0.01777271396821207</v>
+        <v>0.01710559935219416</v>
       </c>
       <c r="F13">
-        <v>-0.08381412257201636</v>
+        <v>0.01984631844366128</v>
       </c>
       <c r="G13">
-        <v>0.05608026976698955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05937356238256947</v>
+      </c>
+      <c r="H13">
+        <v>0.02685813169391765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01107330582309316</v>
+        <v>-0.01559845698108903</v>
       </c>
       <c r="C14">
-        <v>-0.02195159536074971</v>
+        <v>0.003237977830351154</v>
       </c>
       <c r="D14">
-        <v>0.002089349749847217</v>
+        <v>-0.000401699150170163</v>
       </c>
       <c r="E14">
-        <v>-0.0377667914130961</v>
+        <v>-0.007555875593500945</v>
       </c>
       <c r="F14">
-        <v>-0.06404547132513842</v>
+        <v>0.02569120247401667</v>
       </c>
       <c r="G14">
-        <v>0.06828569651175635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03823567609041983</v>
+      </c>
+      <c r="H14">
+        <v>-0.0182940126460198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02408717666781419</v>
+        <v>-0.02177794407576414</v>
       </c>
       <c r="C16">
-        <v>-0.01207971556033182</v>
+        <v>0.01344842760563515</v>
       </c>
       <c r="D16">
-        <v>0.01213122805253824</v>
+        <v>-0.02972302547181751</v>
       </c>
       <c r="E16">
-        <v>-0.03433531773746093</v>
+        <v>-0.001900354550279739</v>
       </c>
       <c r="F16">
-        <v>-0.0394804043067974</v>
+        <v>0.027850400114976</v>
       </c>
       <c r="G16">
-        <v>0.02965228873541422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02565848873030694</v>
+      </c>
+      <c r="H16">
+        <v>0.02170087026689249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0357983989777254</v>
+        <v>-0.03563314168909164</v>
       </c>
       <c r="C19">
-        <v>-0.01207571598807654</v>
+        <v>0.008595152633328986</v>
       </c>
       <c r="D19">
-        <v>0.01854445382654067</v>
+        <v>-0.00947636502381158</v>
       </c>
       <c r="E19">
-        <v>-0.03929793870545566</v>
+        <v>0.002193567508722135</v>
       </c>
       <c r="F19">
-        <v>-0.09848875450086297</v>
+        <v>0.0311204169333923</v>
       </c>
       <c r="G19">
-        <v>0.066827607310728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06444239732987067</v>
+      </c>
+      <c r="H19">
+        <v>0.03988877652155796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007159718179181829</v>
+        <v>-0.007406156733849186</v>
       </c>
       <c r="C20">
-        <v>-0.02090826547071071</v>
+        <v>-0.006350182297476257</v>
       </c>
       <c r="D20">
-        <v>0.003319451562236823</v>
+        <v>-0.00185332734744961</v>
       </c>
       <c r="E20">
-        <v>-0.02870714596681059</v>
+        <v>-0.001843948393628884</v>
       </c>
       <c r="F20">
-        <v>-0.06200222353221219</v>
+        <v>0.01697014034169058</v>
       </c>
       <c r="G20">
-        <v>0.07379239023048706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04578208707207612</v>
+      </c>
+      <c r="H20">
+        <v>-0.008212539266171012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004040913757631074</v>
+        <v>-0.02267977814449695</v>
       </c>
       <c r="C21">
-        <v>0.002812133438418891</v>
+        <v>-0.001540412760350435</v>
       </c>
       <c r="D21">
-        <v>0.006806471690917444</v>
+        <v>6.754211060423707e-05</v>
       </c>
       <c r="E21">
-        <v>-0.03614078492904873</v>
+        <v>-0.01251100039157165</v>
       </c>
       <c r="F21">
-        <v>-0.0903787815293491</v>
+        <v>0.007869018530977873</v>
       </c>
       <c r="G21">
-        <v>0.03313159317982971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05411043267465493</v>
+      </c>
+      <c r="H21">
+        <v>0.01100341310331069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02628912031992487</v>
+        <v>-0.02245043654889328</v>
       </c>
       <c r="C24">
-        <v>-0.01080034944890042</v>
+        <v>0.008548962682530635</v>
       </c>
       <c r="D24">
-        <v>0.00930803553828001</v>
+        <v>-0.02758328949732531</v>
       </c>
       <c r="E24">
-        <v>-0.02752862938905714</v>
+        <v>-0.001562263733408845</v>
       </c>
       <c r="F24">
-        <v>-0.04007257641275246</v>
+        <v>0.02238851261338661</v>
       </c>
       <c r="G24">
-        <v>0.01343439552484955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02677193655033731</v>
+      </c>
+      <c r="H24">
+        <v>0.02884512686383324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02933774299163931</v>
+        <v>-0.03261005633065442</v>
       </c>
       <c r="C25">
-        <v>-0.00986605553067336</v>
+        <v>0.008960333691342907</v>
       </c>
       <c r="D25">
-        <v>0.007168011832096621</v>
+        <v>-0.02145127375895206</v>
       </c>
       <c r="E25">
-        <v>-0.03424550171238099</v>
+        <v>-0.001705070416699975</v>
       </c>
       <c r="F25">
-        <v>-0.04358286474461823</v>
+        <v>0.02721407063085814</v>
       </c>
       <c r="G25">
-        <v>0.006721710312261269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03262208774769032</v>
+      </c>
+      <c r="H25">
+        <v>0.03159186061158004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01627372093655046</v>
+        <v>-0.0204277367251921</v>
       </c>
       <c r="C26">
-        <v>-9.287536008039865e-05</v>
+        <v>-0.01451088045474669</v>
       </c>
       <c r="D26">
-        <v>0.03444903329217795</v>
+        <v>-0.007104728459832214</v>
       </c>
       <c r="E26">
-        <v>-0.04428340203743385</v>
+        <v>0.006105404392357443</v>
       </c>
       <c r="F26">
-        <v>-0.06269728911173113</v>
+        <v>0.006330153932821424</v>
       </c>
       <c r="G26">
-        <v>0.04050812355526938</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03690260342384939</v>
+      </c>
+      <c r="H26">
+        <v>0.001984786331159029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07291945137855683</v>
+        <v>-0.03163238783081922</v>
       </c>
       <c r="C27">
-        <v>-0.04958113888524762</v>
+        <v>0.02015438768434005</v>
       </c>
       <c r="D27">
-        <v>-0.005291704616020661</v>
+        <v>-0.002848209983421575</v>
       </c>
       <c r="E27">
-        <v>-0.0506504753601167</v>
+        <v>-0.004048000355654001</v>
       </c>
       <c r="F27">
-        <v>-0.06545050173422853</v>
+        <v>0.02513262518817948</v>
       </c>
       <c r="G27">
-        <v>0.06819357640970763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02636688877967849</v>
+      </c>
+      <c r="H27">
+        <v>-0.0007168529718914576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08493576348789689</v>
+        <v>-0.1212781631266252</v>
       </c>
       <c r="C28">
-        <v>-0.06072658549878956</v>
+        <v>0.05340347583914594</v>
       </c>
       <c r="D28">
-        <v>-0.04114204428706446</v>
+        <v>0.207171568009543</v>
       </c>
       <c r="E28">
-        <v>0.1753491429911091</v>
+        <v>0.02877623729268188</v>
       </c>
       <c r="F28">
-        <v>-0.05650487340741003</v>
+        <v>-0.1252497667478577</v>
       </c>
       <c r="G28">
-        <v>0.03205780639401575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01771333050359698</v>
+      </c>
+      <c r="H28">
+        <v>-0.003916431856621079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01905889531434011</v>
+        <v>-0.02049317634591851</v>
       </c>
       <c r="C29">
-        <v>-0.02274668069279119</v>
+        <v>0.006516791989746266</v>
       </c>
       <c r="D29">
-        <v>-0.002466100448845504</v>
+        <v>-0.003041457920686252</v>
       </c>
       <c r="E29">
-        <v>-0.05786516040259195</v>
+        <v>-0.008714306721780845</v>
       </c>
       <c r="F29">
-        <v>-0.05582596159841091</v>
+        <v>0.02844891343775393</v>
       </c>
       <c r="G29">
-        <v>0.06514325731853519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03235928701709693</v>
+      </c>
+      <c r="H29">
+        <v>-0.01700781643685358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07859999105976861</v>
+        <v>-0.05492113223128799</v>
       </c>
       <c r="C30">
-        <v>-0.05624440702816384</v>
+        <v>0.008966216309583845</v>
       </c>
       <c r="D30">
-        <v>0.03650420840303179</v>
+        <v>-0.0491019318111279</v>
       </c>
       <c r="E30">
-        <v>-0.09768863540463155</v>
+        <v>0.03523947582310986</v>
       </c>
       <c r="F30">
-        <v>-0.07509474519916144</v>
+        <v>0.08215465227092779</v>
       </c>
       <c r="G30">
-        <v>0.03145690781069981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06557719569052532</v>
+      </c>
+      <c r="H30">
+        <v>0.03891768479703023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05760420171131932</v>
+        <v>-0.05229954256351581</v>
       </c>
       <c r="C31">
-        <v>-0.01851334541180399</v>
+        <v>0.0264626279127822</v>
       </c>
       <c r="D31">
-        <v>0.04476844079794916</v>
+        <v>-0.0193390390895743</v>
       </c>
       <c r="E31">
-        <v>-0.03421236427657304</v>
+        <v>0.009434571282121671</v>
       </c>
       <c r="F31">
-        <v>-0.03867699855375793</v>
+        <v>0.02142350878770646</v>
       </c>
       <c r="G31">
-        <v>0.09624381564269151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01506505106873109</v>
+      </c>
+      <c r="H31">
+        <v>-0.01360432665421823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01053281830974145</v>
+        <v>-0.005433390662723536</v>
       </c>
       <c r="C32">
-        <v>-0.02290168482538034</v>
+        <v>0.0149824918970583</v>
       </c>
       <c r="D32">
-        <v>-0.003543656415479631</v>
+        <v>0.006191258394751477</v>
       </c>
       <c r="E32">
-        <v>-0.07777298045622222</v>
+        <v>-0.01794845675107648</v>
       </c>
       <c r="F32">
-        <v>-0.0764773420493869</v>
+        <v>0.04334379913936341</v>
       </c>
       <c r="G32">
-        <v>0.05561459374034573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04877986693711796</v>
+      </c>
+      <c r="H32">
+        <v>0.04605906703738533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04809636338299738</v>
+        <v>-0.03878937296993328</v>
       </c>
       <c r="C33">
-        <v>-0.003181297782610954</v>
+        <v>0.008813478660346912</v>
       </c>
       <c r="D33">
-        <v>0.04095238773706947</v>
+        <v>-0.03022530962331191</v>
       </c>
       <c r="E33">
-        <v>-0.06702406181711991</v>
+        <v>0.02143034586264026</v>
       </c>
       <c r="F33">
-        <v>-0.09279439320369441</v>
+        <v>0.01647138967920927</v>
       </c>
       <c r="G33">
-        <v>0.05298213880561325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05735617639999013</v>
+      </c>
+      <c r="H33">
+        <v>0.01856227282084777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02813465322831745</v>
+        <v>-0.02402092774827538</v>
       </c>
       <c r="C34">
-        <v>-0.01605597077711879</v>
+        <v>0.02242285340241883</v>
       </c>
       <c r="D34">
-        <v>0.009629821849615123</v>
+        <v>-0.02618504060625545</v>
       </c>
       <c r="E34">
-        <v>-0.03755533585390808</v>
+        <v>-0.006322350235472917</v>
       </c>
       <c r="F34">
-        <v>-0.0465225635320047</v>
+        <v>0.02768586720069713</v>
       </c>
       <c r="G34">
-        <v>0.0146068360647616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02548704457268161</v>
+      </c>
+      <c r="H34">
+        <v>0.02666127461508674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01238720282320618</v>
+        <v>-0.01854239038893336</v>
       </c>
       <c r="C36">
-        <v>-0.009772082492986977</v>
+        <v>-0.001060236657383095</v>
       </c>
       <c r="D36">
-        <v>0.00113294515935161</v>
+        <v>0.001701202984282239</v>
       </c>
       <c r="E36">
-        <v>-0.03063247306108827</v>
+        <v>-0.002448214492111772</v>
       </c>
       <c r="F36">
-        <v>-0.03318009042132029</v>
+        <v>0.006668234653932494</v>
       </c>
       <c r="G36">
-        <v>0.03844004242955095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02157944317611548</v>
+      </c>
+      <c r="H36">
+        <v>-0.001387668680042934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005917379862887383</v>
+        <v>-0.01288027918290863</v>
       </c>
       <c r="C38">
-        <v>0.002544397111118828</v>
+        <v>0.01770321870549874</v>
       </c>
       <c r="D38">
-        <v>-0.01592666700116608</v>
+        <v>0.001572909092514773</v>
       </c>
       <c r="E38">
-        <v>0.004036862451016528</v>
+        <v>-0.007144293263212585</v>
       </c>
       <c r="F38">
-        <v>-0.007495054516080747</v>
+        <v>0.009216620300171091</v>
       </c>
       <c r="G38">
-        <v>8.429662182532156e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02484032110118435</v>
+      </c>
+      <c r="H38">
+        <v>0.01929899666346728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03659612340549805</v>
+        <v>-0.02512232788490181</v>
       </c>
       <c r="C39">
-        <v>-0.02372621229735064</v>
+        <v>0.007894819412111204</v>
       </c>
       <c r="D39">
-        <v>0.0269651416002707</v>
+        <v>-0.06146638415689237</v>
       </c>
       <c r="E39">
-        <v>-0.03540323480821374</v>
+        <v>0.0007436699922093448</v>
       </c>
       <c r="F39">
-        <v>-0.05161160773472421</v>
+        <v>0.0500390275621754</v>
       </c>
       <c r="G39">
-        <v>0.0227171484087973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05226042187525855</v>
+      </c>
+      <c r="H39">
+        <v>0.05010885005761646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02729336926680677</v>
+        <v>-0.02957344804097869</v>
       </c>
       <c r="C40">
-        <v>-0.03841472704781477</v>
+        <v>0.007349872612718136</v>
       </c>
       <c r="D40">
-        <v>0.05015422297134089</v>
+        <v>-0.02041507748782905</v>
       </c>
       <c r="E40">
-        <v>-0.04232155716214574</v>
+        <v>0.01898374966563685</v>
       </c>
       <c r="F40">
-        <v>-0.07699624430703673</v>
+        <v>0.03925273217195428</v>
       </c>
       <c r="G40">
-        <v>0.07550877454390574</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03555163420455667</v>
+      </c>
+      <c r="H40">
+        <v>0.04851401447573143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003957423408575204</v>
+        <v>-0.007523761940563591</v>
       </c>
       <c r="C41">
-        <v>0.00923122242438186</v>
+        <v>-0.0003435577979617513</v>
       </c>
       <c r="D41">
-        <v>0.006347269751876432</v>
+        <v>0.005473357145587264</v>
       </c>
       <c r="E41">
-        <v>-0.02058637812154372</v>
+        <v>0.001292849183081552</v>
       </c>
       <c r="F41">
-        <v>-0.01641575104868069</v>
+        <v>-0.006150563973538736</v>
       </c>
       <c r="G41">
-        <v>0.06516530250869171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005299920591536777</v>
+      </c>
+      <c r="H41">
+        <v>-0.01673577070367606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3844094134202011</v>
+        <v>-0.2425984875684102</v>
       </c>
       <c r="C42">
-        <v>0.8822117350972085</v>
+        <v>-0.05267495600724661</v>
       </c>
       <c r="D42">
-        <v>0.1856226570825481</v>
+        <v>-0.6238263384857807</v>
       </c>
       <c r="E42">
-        <v>0.08727870931969671</v>
+        <v>0.08898091886845262</v>
       </c>
       <c r="F42">
-        <v>0.02432681788581521</v>
+        <v>-0.7192968562900807</v>
       </c>
       <c r="G42">
-        <v>0.009218641211279893</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08034631837733269</v>
+      </c>
+      <c r="H42">
+        <v>0.02140968556113193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01024604948748513</v>
+        <v>-0.004797555310215811</v>
       </c>
       <c r="C43">
-        <v>0.004394150603789177</v>
+        <v>-0.003332134283356535</v>
       </c>
       <c r="D43">
-        <v>0.011008192996966</v>
+        <v>0.007199865068673583</v>
       </c>
       <c r="E43">
-        <v>-0.02167070999774225</v>
+        <v>0.005416149614385179</v>
       </c>
       <c r="F43">
-        <v>-0.03298569252927252</v>
+        <v>-0.01022753860619889</v>
       </c>
       <c r="G43">
-        <v>0.06022247782133574</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01382913402052162</v>
+      </c>
+      <c r="H43">
+        <v>-0.008456113051816811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01502024371953834</v>
+        <v>-0.01087238009874923</v>
       </c>
       <c r="C44">
-        <v>-0.006742146019576564</v>
+        <v>0.001149272294699134</v>
       </c>
       <c r="D44">
-        <v>0.01948298754458343</v>
+        <v>-0.02342129957321989</v>
       </c>
       <c r="E44">
-        <v>-0.05408938010325733</v>
+        <v>-0.003061920389542993</v>
       </c>
       <c r="F44">
-        <v>-0.1854243943442366</v>
+        <v>0.009058111704183835</v>
       </c>
       <c r="G44">
-        <v>0.187700196213475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08493191626511949</v>
+      </c>
+      <c r="H44">
+        <v>0.015916278298798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01817476928026866</v>
+        <v>-0.02155457516379463</v>
       </c>
       <c r="C46">
-        <v>-0.0197314988187193</v>
+        <v>0.002932129088929744</v>
       </c>
       <c r="D46">
-        <v>0.01349110801549219</v>
+        <v>-0.007654626166821718</v>
       </c>
       <c r="E46">
-        <v>-0.05924701410291742</v>
+        <v>0.002291967084809426</v>
       </c>
       <c r="F46">
-        <v>-0.05944332050780727</v>
+        <v>0.03369516227132457</v>
       </c>
       <c r="G46">
-        <v>0.05403341599579197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04773665382633278</v>
+      </c>
+      <c r="H46">
+        <v>-0.01484290142519185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09505629352766715</v>
+        <v>-0.07145510375606708</v>
       </c>
       <c r="C47">
-        <v>-0.03271991363934323</v>
+        <v>0.04709004064613728</v>
       </c>
       <c r="D47">
-        <v>0.02423107448137843</v>
+        <v>-0.02333421442410589</v>
       </c>
       <c r="E47">
-        <v>-0.05488639374680367</v>
+        <v>0.005003578509835985</v>
       </c>
       <c r="F47">
-        <v>-0.002702759898933794</v>
+        <v>0.03347854772105395</v>
       </c>
       <c r="G47">
-        <v>0.08681832491974656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01745627041564419</v>
+      </c>
+      <c r="H47">
+        <v>-0.02887554931860709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.007495935231664599</v>
+        <v>-0.01641051772426515</v>
       </c>
       <c r="C48">
-        <v>-0.005143293739791989</v>
+        <v>0.008569151457520683</v>
       </c>
       <c r="D48">
-        <v>0.01258079791556899</v>
+        <v>-0.004998285645475771</v>
       </c>
       <c r="E48">
-        <v>-0.04573513719426207</v>
+        <v>0.001025314169426132</v>
       </c>
       <c r="F48">
-        <v>-0.04940590551426673</v>
+        <v>0.01209685517344691</v>
       </c>
       <c r="G48">
-        <v>0.0160696447474503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02733976973890725</v>
+      </c>
+      <c r="H48">
+        <v>0.003489563685071664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08599085311110305</v>
+        <v>-0.06478747694363474</v>
       </c>
       <c r="C50">
-        <v>-0.01974138633594968</v>
+        <v>0.03995581705044035</v>
       </c>
       <c r="D50">
-        <v>0.03631079348017522</v>
+        <v>-0.03559022611504008</v>
       </c>
       <c r="E50">
-        <v>-0.05805165770578171</v>
+        <v>-0.008940951992674789</v>
       </c>
       <c r="F50">
-        <v>-0.03091615242936337</v>
+        <v>0.03308650649383951</v>
       </c>
       <c r="G50">
-        <v>0.02627624202772822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01656148706655745</v>
+      </c>
+      <c r="H50">
+        <v>-0.02434781385912476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03719611792383651</v>
+        <v>-0.02569067426336045</v>
       </c>
       <c r="C51">
-        <v>-0.0001032002363359788</v>
+        <v>0.005733285107001466</v>
       </c>
       <c r="D51">
-        <v>0.04497037713230412</v>
+        <v>0.003493135238215699</v>
       </c>
       <c r="E51">
-        <v>-0.0129191599754304</v>
+        <v>0.01490752509992027</v>
       </c>
       <c r="F51">
-        <v>-0.154884744732823</v>
+        <v>-0.01763597675281843</v>
       </c>
       <c r="G51">
-        <v>0.07580433045747055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.08132279840981024</v>
+      </c>
+      <c r="H51">
+        <v>0.02590563589193747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1041420265068107</v>
+        <v>-0.09065768994250727</v>
       </c>
       <c r="C53">
-        <v>-0.04784768868045478</v>
+        <v>0.05917699681488515</v>
       </c>
       <c r="D53">
-        <v>0.04166729654795752</v>
+        <v>-0.04625972711602874</v>
       </c>
       <c r="E53">
-        <v>-0.06563189453623129</v>
+        <v>0.002827751767549179</v>
       </c>
       <c r="F53">
-        <v>0.05569457072084168</v>
+        <v>0.06834122246602344</v>
       </c>
       <c r="G53">
-        <v>0.03909825004706279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05991537123444763</v>
+      </c>
+      <c r="H53">
+        <v>-0.03291441583634959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02184921807822621</v>
+        <v>-0.02226778391339648</v>
       </c>
       <c r="C54">
-        <v>-0.03859070876608241</v>
+        <v>0.01822456008705924</v>
       </c>
       <c r="D54">
-        <v>0.003776711761878709</v>
+        <v>0.02468471405599151</v>
       </c>
       <c r="E54">
-        <v>-0.03263532434393725</v>
+        <v>-0.0008674635069701607</v>
       </c>
       <c r="F54">
-        <v>-0.06974493244822035</v>
+        <v>0.01136681535692773</v>
       </c>
       <c r="G54">
-        <v>0.07249870775867071</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04066221680622364</v>
+      </c>
+      <c r="H54">
+        <v>-0.02052269182077096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1021251697860378</v>
+        <v>-0.07831103934140105</v>
       </c>
       <c r="C55">
-        <v>-0.03408131451597076</v>
+        <v>0.05214546292795016</v>
       </c>
       <c r="D55">
-        <v>-0.003463257010084327</v>
+        <v>-0.04479009541464838</v>
       </c>
       <c r="E55">
-        <v>-0.0660094933566571</v>
+        <v>-0.01029899132768459</v>
       </c>
       <c r="F55">
-        <v>0.05446959486561017</v>
+        <v>0.05777089651361472</v>
       </c>
       <c r="G55">
-        <v>0.06261333506564887</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0387679356970721</v>
+      </c>
+      <c r="H55">
+        <v>-0.04941867793970192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1417661127733393</v>
+        <v>-0.1175523685160119</v>
       </c>
       <c r="C56">
-        <v>-0.07513835308024649</v>
+        <v>0.08378611292765094</v>
       </c>
       <c r="D56">
-        <v>0.02685494079180073</v>
+        <v>-0.05924340298141143</v>
       </c>
       <c r="E56">
-        <v>-0.08310080411008863</v>
+        <v>-0.002424447051022911</v>
       </c>
       <c r="F56">
-        <v>0.1584772447890239</v>
+        <v>0.09529564233500838</v>
       </c>
       <c r="G56">
-        <v>0.01377820313620913</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1029222956308885</v>
+      </c>
+      <c r="H56">
+        <v>-0.02346150363222591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04058835868072502</v>
+        <v>-0.04210639383597457</v>
       </c>
       <c r="C57">
-        <v>-0.01583397239564685</v>
+        <v>-0.0009969402882387464</v>
       </c>
       <c r="D57">
-        <v>0.02866048309943224</v>
+        <v>-0.02097258054691404</v>
       </c>
       <c r="E57">
-        <v>-0.022343803604645</v>
+        <v>0.01074050010781555</v>
       </c>
       <c r="F57">
-        <v>-0.07510828630677295</v>
+        <v>0.0275813451621862</v>
       </c>
       <c r="G57">
-        <v>0.03394223896486341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0655987640433065</v>
+      </c>
+      <c r="H57">
+        <v>0.01002017737195928</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2039355525275441</v>
+        <v>-0.1510608890592783</v>
       </c>
       <c r="C58">
-        <v>-0.06495745132591166</v>
+        <v>0.08102374512182739</v>
       </c>
       <c r="D58">
-        <v>0.1056095951680521</v>
+        <v>-0.1217392842290622</v>
       </c>
       <c r="E58">
-        <v>-0.1988365093368224</v>
+        <v>0.1165009325276537</v>
       </c>
       <c r="F58">
-        <v>-0.3189105712575568</v>
+        <v>0.07165009196179049</v>
       </c>
       <c r="G58">
-        <v>-0.3040523006388258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.663323836309003</v>
+      </c>
+      <c r="H58">
+        <v>-0.5837202038572635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08051286325374532</v>
+        <v>-0.1211785030518122</v>
       </c>
       <c r="C59">
-        <v>-0.08869866677817045</v>
+        <v>0.06032378558707711</v>
       </c>
       <c r="D59">
-        <v>-0.03331354262111345</v>
+        <v>0.2048171181530638</v>
       </c>
       <c r="E59">
-        <v>0.1459461370116827</v>
+        <v>0.04507463023218126</v>
       </c>
       <c r="F59">
-        <v>-0.0561655519814076</v>
+        <v>-0.1018456444479741</v>
       </c>
       <c r="G59">
-        <v>0.01297868803426213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02682836278241937</v>
+      </c>
+      <c r="H59">
+        <v>0.02627926372426153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1656026698024256</v>
+        <v>-0.1605887211514485</v>
       </c>
       <c r="C60">
-        <v>-0.07245438135245691</v>
+        <v>0.07387107061580486</v>
       </c>
       <c r="D60">
-        <v>0.06199713046445666</v>
+        <v>-0.003895797040360848</v>
       </c>
       <c r="E60">
-        <v>-0.01999386101319134</v>
+        <v>0.05567255679526217</v>
       </c>
       <c r="F60">
-        <v>-0.104477036998657</v>
+        <v>0.06932361106333103</v>
       </c>
       <c r="G60">
-        <v>-0.2890369122675721</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1422822966145166</v>
+      </c>
+      <c r="H60">
+        <v>0.3592421567009533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0188383655835834</v>
+        <v>-0.02155650448595508</v>
       </c>
       <c r="C61">
-        <v>-0.01095142332284664</v>
+        <v>0.0115391152729858</v>
       </c>
       <c r="D61">
-        <v>0.003880812902100794</v>
+        <v>-0.03238939259002017</v>
       </c>
       <c r="E61">
-        <v>-0.02008692963267745</v>
+        <v>-0.003795959012050764</v>
       </c>
       <c r="F61">
-        <v>-0.04422486363650229</v>
+        <v>0.03497184013973317</v>
       </c>
       <c r="G61">
-        <v>0.00919585784498392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03328529526309913</v>
+      </c>
+      <c r="H61">
+        <v>0.03777159812902015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0167677317068733</v>
+        <v>-0.01414418017649092</v>
       </c>
       <c r="C63">
-        <v>-0.01624933172224039</v>
+        <v>0.001776392590223128</v>
       </c>
       <c r="D63">
-        <v>0.01300309649405795</v>
+        <v>-0.004900942209931661</v>
       </c>
       <c r="E63">
-        <v>-0.04576867080065462</v>
+        <v>-0.001475629234845407</v>
       </c>
       <c r="F63">
-        <v>-0.02068002110638686</v>
+        <v>0.02180032917574106</v>
       </c>
       <c r="G63">
-        <v>0.0415291150727327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0169302463744406</v>
+      </c>
+      <c r="H63">
+        <v>-0.008501010710681557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0288862339869241</v>
+        <v>-0.03728087457891131</v>
       </c>
       <c r="C64">
-        <v>-0.02098063758604587</v>
+        <v>0.01848287216586476</v>
       </c>
       <c r="D64">
-        <v>-0.01912227935168558</v>
+        <v>-0.0282651264641137</v>
       </c>
       <c r="E64">
-        <v>-0.04774275630931485</v>
+        <v>-0.01416129389869376</v>
       </c>
       <c r="F64">
-        <v>-0.02415340622677065</v>
+        <v>0.0323454992789458</v>
       </c>
       <c r="G64">
-        <v>0.06970785412773861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.009788814566372395</v>
+      </c>
+      <c r="H64">
+        <v>0.03244740166951759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01088643917339411</v>
+        <v>-0.0357896956591946</v>
       </c>
       <c r="C65">
-        <v>0.0006482930980362212</v>
+        <v>0.004276516598145195</v>
       </c>
       <c r="D65">
-        <v>0.009154298159184917</v>
+        <v>-0.03614802597717155</v>
       </c>
       <c r="E65">
-        <v>-0.005229984280972968</v>
+        <v>-0.006556522522159096</v>
       </c>
       <c r="F65">
-        <v>-0.007981273047928996</v>
+        <v>0.04003518915199978</v>
       </c>
       <c r="G65">
-        <v>-0.01760593215872891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002687227409005525</v>
+      </c>
+      <c r="H65">
+        <v>0.05914318497983789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03381186638953788</v>
+        <v>-0.03046962929201134</v>
       </c>
       <c r="C66">
-        <v>-0.02727622663073125</v>
+        <v>0.01423074030989111</v>
       </c>
       <c r="D66">
-        <v>0.02064950069388736</v>
+        <v>-0.06615908938208512</v>
       </c>
       <c r="E66">
-        <v>-0.03885803653885281</v>
+        <v>0.006027256225822013</v>
       </c>
       <c r="F66">
-        <v>-0.04815062635207028</v>
+        <v>0.07004603716789042</v>
       </c>
       <c r="G66">
-        <v>0.008764141709800971</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04402873303754251</v>
+      </c>
+      <c r="H66">
+        <v>0.06292845274051283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02605934027660777</v>
+        <v>-0.03174153879783514</v>
       </c>
       <c r="C67">
-        <v>-0.007907342600571507</v>
+        <v>0.02503305429879884</v>
       </c>
       <c r="D67">
-        <v>-0.01657515453652381</v>
+        <v>0.009754231644968961</v>
       </c>
       <c r="E67">
-        <v>0.02941227488489208</v>
+        <v>-0.002609598238563322</v>
       </c>
       <c r="F67">
-        <v>-0.01796204223383797</v>
+        <v>0.01077512776376449</v>
       </c>
       <c r="G67">
-        <v>-0.005087531171156541</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01589789040579347</v>
+      </c>
+      <c r="H67">
+        <v>0.03241215403638899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09465031498293684</v>
+        <v>-0.125254648205697</v>
       </c>
       <c r="C68">
-        <v>-0.06766630642877333</v>
+        <v>0.03916517429128848</v>
       </c>
       <c r="D68">
-        <v>-0.05081458813741251</v>
+        <v>0.1896580725436915</v>
       </c>
       <c r="E68">
-        <v>0.169447891564948</v>
+        <v>0.03705463814103742</v>
       </c>
       <c r="F68">
-        <v>-0.007169750833999716</v>
+        <v>-0.1191343551088563</v>
       </c>
       <c r="G68">
-        <v>-0.03381273366933247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01293231899974519</v>
+      </c>
+      <c r="H68">
+        <v>-0.04821489481810541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0736188403572017</v>
+        <v>-0.05528637742185596</v>
       </c>
       <c r="C69">
-        <v>-0.03242785881435362</v>
+        <v>0.04163851195624735</v>
       </c>
       <c r="D69">
-        <v>0.02514422136430181</v>
+        <v>-0.02138154069608857</v>
       </c>
       <c r="E69">
-        <v>-0.01595242202453796</v>
+        <v>0.005269132359592148</v>
       </c>
       <c r="F69">
-        <v>-0.01998488402231965</v>
+        <v>0.03267356814163752</v>
       </c>
       <c r="G69">
-        <v>0.06776468690696899</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005382931883691665</v>
+      </c>
+      <c r="H69">
+        <v>-0.009508485780911057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1090521395407694</v>
+        <v>-0.1205986399778411</v>
       </c>
       <c r="C71">
-        <v>-0.07019995305013144</v>
+        <v>0.04734018771120236</v>
       </c>
       <c r="D71">
-        <v>-0.02554764571729317</v>
+        <v>0.179029906230663</v>
       </c>
       <c r="E71">
-        <v>0.2229737702406055</v>
+        <v>0.04034797089901273</v>
       </c>
       <c r="F71">
-        <v>-0.03600110834550592</v>
+        <v>-0.1279375478254515</v>
       </c>
       <c r="G71">
-        <v>0.01326841247391702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01841839456820068</v>
+      </c>
+      <c r="H71">
+        <v>-0.02210369244282557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1109636570984433</v>
+        <v>-0.08359950503988667</v>
       </c>
       <c r="C72">
-        <v>-0.1160888534379487</v>
+        <v>0.06423274105632225</v>
       </c>
       <c r="D72">
-        <v>0.01915511714421745</v>
+        <v>-0.05658040881433528</v>
       </c>
       <c r="E72">
-        <v>-0.1052532624447644</v>
+        <v>0.00692271443676329</v>
       </c>
       <c r="F72">
-        <v>-0.08670392578433306</v>
+        <v>0.130555298911737</v>
       </c>
       <c r="G72">
-        <v>-0.1230221844717869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09409612613567714</v>
+      </c>
+      <c r="H72">
+        <v>0.1327314042650336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2473127267358723</v>
+        <v>-0.2292066346606651</v>
       </c>
       <c r="C73">
-        <v>-0.1030640097173787</v>
+        <v>0.0999546962319974</v>
       </c>
       <c r="D73">
-        <v>0.05979039392365645</v>
+        <v>-0.0324551364847337</v>
       </c>
       <c r="E73">
-        <v>0.0239962961360866</v>
+        <v>0.08724454998188197</v>
       </c>
       <c r="F73">
-        <v>-0.2212687810954264</v>
+        <v>0.08025343290597742</v>
       </c>
       <c r="G73">
-        <v>-0.4599548839894392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2136713788714756</v>
+      </c>
+      <c r="H73">
+        <v>0.5032967155943923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1217358888961147</v>
+        <v>-0.1049589374826817</v>
       </c>
       <c r="C74">
-        <v>-0.04022788668662828</v>
+        <v>0.07427945599687426</v>
       </c>
       <c r="D74">
-        <v>0.02883570518575533</v>
+        <v>-0.06037491481582567</v>
       </c>
       <c r="E74">
-        <v>-0.0426453919926774</v>
+        <v>0.004049001258397329</v>
       </c>
       <c r="F74">
-        <v>0.1108955466853289</v>
+        <v>0.0782316624768984</v>
       </c>
       <c r="G74">
-        <v>0.01447373470775422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.08741429692083268</v>
+      </c>
+      <c r="H74">
+        <v>-0.001635539756537456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2188111724654691</v>
+        <v>-0.2111899900698387</v>
       </c>
       <c r="C75">
-        <v>-0.1141205819839586</v>
+        <v>0.1512802950057786</v>
       </c>
       <c r="D75">
-        <v>0.06694199643551954</v>
+        <v>-0.075291793007318</v>
       </c>
       <c r="E75">
-        <v>-0.09253287196525327</v>
+        <v>0.02571744788233876</v>
       </c>
       <c r="F75">
-        <v>0.1785624750463245</v>
+        <v>0.149952923164933</v>
       </c>
       <c r="G75">
-        <v>0.07986987767267721</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1632540519894073</v>
+      </c>
+      <c r="H75">
+        <v>-0.08161003343670345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2587426727397109</v>
+        <v>-0.1986708532342717</v>
       </c>
       <c r="C76">
-        <v>-0.1290097469055373</v>
+        <v>0.1468843540211101</v>
       </c>
       <c r="D76">
-        <v>0.01299780896461191</v>
+        <v>-0.07271759964292632</v>
       </c>
       <c r="E76">
-        <v>-0.0780217180220769</v>
+        <v>-0.01451388748343957</v>
       </c>
       <c r="F76">
-        <v>0.2026343784152443</v>
+        <v>0.1564738663284851</v>
       </c>
       <c r="G76">
-        <v>0.0890219064467271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1799247872145489</v>
+      </c>
+      <c r="H76">
+        <v>-0.09062985170314096</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1264187112418374</v>
+        <v>-0.07239613323370905</v>
       </c>
       <c r="C77">
-        <v>0.02047983448172116</v>
+        <v>0.02438171351196368</v>
       </c>
       <c r="D77">
-        <v>0.0616203851156412</v>
+        <v>-0.07644238442392508</v>
       </c>
       <c r="E77">
-        <v>-0.07295102530145046</v>
+        <v>0.01127124825601985</v>
       </c>
       <c r="F77">
-        <v>-0.1975589458324695</v>
+        <v>0.006414231217983524</v>
       </c>
       <c r="G77">
-        <v>0.117825391496525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1132852558072281</v>
+      </c>
+      <c r="H77">
+        <v>-0.06199735608882745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05012139394099033</v>
+        <v>-0.03495376207822988</v>
       </c>
       <c r="C78">
-        <v>-0.01033350778450026</v>
+        <v>0.01757118495516809</v>
       </c>
       <c r="D78">
-        <v>0.03048833327863405</v>
+        <v>-0.05294240862371863</v>
       </c>
       <c r="E78">
-        <v>-0.106375414082881</v>
+        <v>-0.005201559647454532</v>
       </c>
       <c r="F78">
-        <v>-0.03082739837778199</v>
+        <v>0.05130244956205079</v>
       </c>
       <c r="G78">
-        <v>0.0610324672125579</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04768196280958727</v>
+      </c>
+      <c r="H78">
+        <v>0.03040461006639782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1956011218269625</v>
+        <v>-0.16839318315572</v>
       </c>
       <c r="C80">
-        <v>0.1461363665501012</v>
+        <v>0.08912194371598021</v>
       </c>
       <c r="D80">
-        <v>-0.9271975772701118</v>
+        <v>0.01944613205160647</v>
       </c>
       <c r="E80">
-        <v>-0.2391109040136415</v>
+        <v>-0.9614922769084571</v>
       </c>
       <c r="F80">
-        <v>-0.04408266171042003</v>
+        <v>-0.1048857339332319</v>
       </c>
       <c r="G80">
-        <v>-0.03143858507568791</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1054956718470578</v>
+      </c>
+      <c r="H80">
+        <v>0.003517532616694194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1559292628655625</v>
+        <v>-0.1433488345749805</v>
       </c>
       <c r="C81">
-        <v>-0.1031818776038474</v>
+        <v>0.102752113505623</v>
       </c>
       <c r="D81">
-        <v>0.02244732018668738</v>
+        <v>-0.04634289921580663</v>
       </c>
       <c r="E81">
-        <v>-0.07398372014063148</v>
+        <v>0.002358378755659461</v>
       </c>
       <c r="F81">
-        <v>0.1802347351224386</v>
+        <v>0.1094826589073694</v>
       </c>
       <c r="G81">
-        <v>0.01148413039248621</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1149702904607376</v>
+      </c>
+      <c r="H81">
+        <v>-0.06837285952241746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04820341307950221</v>
+        <v>-0.03706368361189349</v>
       </c>
       <c r="C83">
-        <v>0.01054931757191007</v>
+        <v>0.01527486891756411</v>
       </c>
       <c r="D83">
-        <v>0.03835508206646814</v>
+        <v>-0.01990457743510099</v>
       </c>
       <c r="E83">
-        <v>-0.03588823388730139</v>
+        <v>0.01356144176031446</v>
       </c>
       <c r="F83">
-        <v>-0.072296841404309</v>
+        <v>0.01247797778395306</v>
       </c>
       <c r="G83">
-        <v>0.06229803336060539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05391050584927896</v>
+      </c>
+      <c r="H83">
+        <v>0.01937307724930967</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2266774495811481</v>
+        <v>-0.201478882188542</v>
       </c>
       <c r="C85">
-        <v>-0.09640291150941295</v>
+        <v>0.1307535478707757</v>
       </c>
       <c r="D85">
-        <v>0.03745222428375953</v>
+        <v>-0.0943419344950891</v>
       </c>
       <c r="E85">
-        <v>-0.06514364250473947</v>
+        <v>0.01336621887507253</v>
       </c>
       <c r="F85">
-        <v>0.1988549728558475</v>
+        <v>0.141347142266802</v>
       </c>
       <c r="G85">
-        <v>0.07321981450460402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.169439276847926</v>
+      </c>
+      <c r="H85">
+        <v>-0.05974915527909436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005381806197837707</v>
+        <v>-0.01086212118464611</v>
       </c>
       <c r="C86">
-        <v>0.005047270321122128</v>
+        <v>-0.0008077603056899493</v>
       </c>
       <c r="D86">
-        <v>0.003790890620758616</v>
+        <v>-0.01125632122526704</v>
       </c>
       <c r="E86">
-        <v>-0.06830575372488383</v>
+        <v>0.006949602898028386</v>
       </c>
       <c r="F86">
-        <v>-0.07322633829508311</v>
+        <v>0.006615950130933966</v>
       </c>
       <c r="G86">
-        <v>0.0552288471002197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0747184005627083</v>
+      </c>
+      <c r="H86">
+        <v>0.03844831284351645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02654322465573604</v>
+        <v>-0.02482307826984408</v>
       </c>
       <c r="C87">
-        <v>-0.009220445473551725</v>
+        <v>0.00760589030301159</v>
       </c>
       <c r="D87">
-        <v>0.007994853548727587</v>
+        <v>-0.02545051533941016</v>
       </c>
       <c r="E87">
-        <v>-0.0360156397185579</v>
+        <v>-0.0001014286792710101</v>
       </c>
       <c r="F87">
-        <v>-0.06567591927403973</v>
+        <v>0.028922502364981</v>
       </c>
       <c r="G87">
-        <v>0.010502230583444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08596674754588568</v>
+      </c>
+      <c r="H87">
+        <v>0.02669605016073914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008328268412540038</v>
+        <v>-0.04051692875258028</v>
       </c>
       <c r="C88">
-        <v>-0.01972730895096002</v>
+        <v>-0.001606218201680904</v>
       </c>
       <c r="D88">
-        <v>-0.0220587440512761</v>
+        <v>0.009055344216818874</v>
       </c>
       <c r="E88">
-        <v>0.002524428995021431</v>
+        <v>-0.005904076733334387</v>
       </c>
       <c r="F88">
-        <v>-0.03116777446592327</v>
+        <v>0.01045055713675295</v>
       </c>
       <c r="G88">
-        <v>0.09001827217610929</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004430184900249601</v>
+      </c>
+      <c r="H88">
+        <v>0.0150804030303667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1291974343901034</v>
+        <v>-0.1945677148811859</v>
       </c>
       <c r="C89">
-        <v>-0.08263449150622122</v>
+        <v>0.07204484730937719</v>
       </c>
       <c r="D89">
-        <v>-0.03290558294490389</v>
+        <v>0.3173243657907048</v>
       </c>
       <c r="E89">
-        <v>0.306225081889489</v>
+        <v>0.08620400913260311</v>
       </c>
       <c r="F89">
-        <v>-0.08879684024200216</v>
+        <v>-0.1919174198984659</v>
       </c>
       <c r="G89">
-        <v>0.04767903109737135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.008078318162034529</v>
+      </c>
+      <c r="H89">
+        <v>-0.01764534196164453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1201452412204464</v>
+        <v>-0.1510874293138332</v>
       </c>
       <c r="C90">
-        <v>-0.08878191844985797</v>
+        <v>0.05622380751839653</v>
       </c>
       <c r="D90">
-        <v>-0.0850140771951453</v>
+        <v>0.2761934849422287</v>
       </c>
       <c r="E90">
-        <v>0.2792745306642719</v>
+        <v>0.05550039580735578</v>
       </c>
       <c r="F90">
-        <v>-0.05467748773596912</v>
+        <v>-0.1777893075907395</v>
       </c>
       <c r="G90">
-        <v>-0.01334887298765949</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02775880210979604</v>
+      </c>
+      <c r="H90">
+        <v>-0.03831976443068645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.288559409617179</v>
+        <v>-0.2214431584932021</v>
       </c>
       <c r="C91">
-        <v>-0.09837885715892165</v>
+        <v>0.1558285247008687</v>
       </c>
       <c r="D91">
-        <v>0.0623004630025603</v>
+        <v>-0.09097634560949598</v>
       </c>
       <c r="E91">
-        <v>-0.06240434119716643</v>
+        <v>0.01832932318737819</v>
       </c>
       <c r="F91">
-        <v>0.2470584060123951</v>
+        <v>0.1465372343130684</v>
       </c>
       <c r="G91">
-        <v>0.02942952251761436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2199781972840204</v>
+      </c>
+      <c r="H91">
+        <v>-0.1120437241378157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1859983196376206</v>
+        <v>-0.2078082810798241</v>
       </c>
       <c r="C92">
-        <v>-0.08443212307031693</v>
+        <v>0.1389799844315528</v>
       </c>
       <c r="D92">
-        <v>-0.1073085366295065</v>
+        <v>0.2449244182568609</v>
       </c>
       <c r="E92">
-        <v>0.4637022405689027</v>
+        <v>0.04484339507412</v>
       </c>
       <c r="F92">
-        <v>-0.110969156384089</v>
+        <v>-0.1516821821193864</v>
       </c>
       <c r="G92">
-        <v>0.3040192184062885</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03930687755716909</v>
+      </c>
+      <c r="H92">
+        <v>-0.130198534444357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1325809711987009</v>
+        <v>-0.1729307025327942</v>
       </c>
       <c r="C93">
-        <v>-0.06922106209734059</v>
+        <v>0.07146991493620439</v>
       </c>
       <c r="D93">
-        <v>-0.09473859743422237</v>
+        <v>0.293509524129563</v>
       </c>
       <c r="E93">
-        <v>0.3903445672966659</v>
+        <v>0.07237775161606233</v>
       </c>
       <c r="F93">
-        <v>-0.005187192132577905</v>
+        <v>-0.2180134076014295</v>
       </c>
       <c r="G93">
-        <v>-0.03591192451132784</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03131504000887003</v>
+      </c>
+      <c r="H93">
+        <v>0.01670002233989479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2609776950019407</v>
+        <v>-0.2416231823868032</v>
       </c>
       <c r="C94">
-        <v>-0.1320048858986988</v>
+        <v>0.1488634895808632</v>
       </c>
       <c r="D94">
-        <v>0.03308088840657197</v>
+        <v>-0.06561578930058462</v>
       </c>
       <c r="E94">
-        <v>-0.08152984090114634</v>
+        <v>0.03609211808282503</v>
       </c>
       <c r="F94">
-        <v>0.297185583085066</v>
+        <v>0.1646857832001745</v>
       </c>
       <c r="G94">
-        <v>-0.007712817806731913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2351815075285944</v>
+      </c>
+      <c r="H94">
+        <v>-0.1236428027478307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08595927583793665</v>
+        <v>-0.06414102746681213</v>
       </c>
       <c r="C95">
-        <v>-0.02069295689048729</v>
+        <v>0.04778687347664742</v>
       </c>
       <c r="D95">
-        <v>0.07075380165776697</v>
+        <v>-0.07427177008037363</v>
       </c>
       <c r="E95">
-        <v>-0.07781902663170824</v>
+        <v>0.0721037470417125</v>
       </c>
       <c r="F95">
-        <v>-0.04902040080100156</v>
+        <v>0.03335393841275686</v>
       </c>
       <c r="G95">
-        <v>0.3426980272489021</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06247163479538377</v>
+      </c>
+      <c r="H95">
+        <v>0.0107561173587838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1852472619390338</v>
+        <v>-0.1637101409266822</v>
       </c>
       <c r="C98">
-        <v>-0.05031347966396744</v>
+        <v>0.1050928672560466</v>
       </c>
       <c r="D98">
-        <v>0.04313450633002991</v>
+        <v>-0.01853359773110351</v>
       </c>
       <c r="E98">
-        <v>0.06968504443516729</v>
+        <v>0.05839687834520915</v>
       </c>
       <c r="F98">
-        <v>-0.09028940136244035</v>
+        <v>0.03097579387954575</v>
       </c>
       <c r="G98">
-        <v>-0.3005875125005731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1760645218834251</v>
+      </c>
+      <c r="H98">
+        <v>0.3565777135080539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002482605249050584</v>
+        <v>-0.0138567487630808</v>
       </c>
       <c r="C101">
-        <v>-0.02835117587706139</v>
+        <v>0.003028988120226294</v>
       </c>
       <c r="D101">
-        <v>0.0115587179269144</v>
+        <v>-0.00455066866912762</v>
       </c>
       <c r="E101">
-        <v>-0.1207812765701158</v>
+        <v>-0.004176558949556341</v>
       </c>
       <c r="F101">
-        <v>-0.1897968067600208</v>
+        <v>0.03629095093683446</v>
       </c>
       <c r="G101">
-        <v>0.009175150486663017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09363057980357804</v>
+      </c>
+      <c r="H101">
+        <v>-0.07171252082752949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09351435076874806</v>
+        <v>-0.1031521730323356</v>
       </c>
       <c r="C102">
-        <v>-0.02933494287741184</v>
+        <v>0.05902031140337157</v>
       </c>
       <c r="D102">
-        <v>0.01537294855870206</v>
+        <v>-0.04616255559624631</v>
       </c>
       <c r="E102">
-        <v>-0.08103202533166363</v>
+        <v>0.000567296712236258</v>
       </c>
       <c r="F102">
-        <v>0.13687470582398</v>
+        <v>0.07404835404910597</v>
       </c>
       <c r="G102">
-        <v>0.08379703802022244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.1021921508069265</v>
+      </c>
+      <c r="H102">
+        <v>-0.05330580520556034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0241492221255159</v>
+        <v>-0.02145526116621818</v>
       </c>
       <c r="C103">
-        <v>-0.01114153882474513</v>
+        <v>0.0133336931973982</v>
       </c>
       <c r="D103">
-        <v>0.01093799500662652</v>
+        <v>-0.01109526851833051</v>
       </c>
       <c r="E103">
-        <v>-0.01056837650683553</v>
+        <v>-0.005556825056011543</v>
       </c>
       <c r="F103">
-        <v>0.02536990427716031</v>
+        <v>0.01837872863783994</v>
       </c>
       <c r="G103">
-        <v>0.02995433585957825</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01067314184149961</v>
+      </c>
+      <c r="H103">
+        <v>-0.008897757705981973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4567038003906787</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8663322453202128</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06602896002528046</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01969337634875946</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1569699303242093</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04058757424811889</v>
+      </c>
+      <c r="H104">
+        <v>-0.03200730152865444</v>
       </c>
     </row>
   </sheetData>
